--- a/Flores Ovalle Victor 20212.xlsx
+++ b/Flores Ovalle Victor 20212.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="590" uniqueCount="491">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="599" uniqueCount="497">
   <si>
     <t>NC</t>
   </si>
@@ -275,6 +275,9 @@
     <t>FATIMA</t>
   </si>
   <si>
+    <t>JOSE ISAAC</t>
+  </si>
+  <si>
     <t>FATIMA MARILYN</t>
   </si>
   <si>
@@ -392,6 +395,9 @@
     <t>fm516197@gmail.com</t>
   </si>
   <si>
+    <t>josemart041020@gmail.com</t>
+  </si>
+  <si>
     <t>fatrodri2@gmail.com</t>
   </si>
   <si>
@@ -503,6 +509,9 @@
     <t>2721951437</t>
   </si>
   <si>
+    <t>2721342134</t>
+  </si>
+  <si>
     <t>2721875803</t>
   </si>
   <si>
@@ -680,6 +689,9 @@
     <t>SARA RIVERA MARTINEZ</t>
   </si>
   <si>
+    <t>DANIEL MARTÍNEZ SÁNCHEZ</t>
+  </si>
+  <si>
     <t>LAURA ALONDRA RODRIGUEZ IGNACIO</t>
   </si>
   <si>
@@ -782,6 +794,9 @@
     <t>reginadejesussanchez@gmail.com</t>
   </si>
   <si>
+    <t>martisandaniel@gmail.com</t>
+  </si>
+  <si>
     <t>rodriguezlauraalondra390@gmail.com</t>
   </si>
   <si>
@@ -849,6 +864,9 @@
   </si>
   <si>
     <t>2722641275</t>
+  </si>
+  <si>
+    <t>9921059452</t>
   </si>
   <si>
     <t>2722260619</t>
@@ -1845,7 +1863,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K40"/>
+  <dimension ref="A1:K41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1909,22 +1927,22 @@
         <v>69</v>
       </c>
       <c r="E2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="G2" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="H2" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="I2" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="J2" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -1944,19 +1962,19 @@
         <v>70</v>
       </c>
       <c r="E3" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F3" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="H3" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="I3" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="J3" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -1976,19 +1994,19 @@
         <v>71</v>
       </c>
       <c r="E4" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F4" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="H4" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="I4" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="J4" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="K4">
         <v>2</v>
@@ -2008,16 +2026,16 @@
         <v>72</v>
       </c>
       <c r="E5" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="G5" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="H5" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="J5" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -2037,19 +2055,19 @@
         <v>73</v>
       </c>
       <c r="E6" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F6" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="H6" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="I6" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="J6" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -2069,19 +2087,19 @@
         <v>74</v>
       </c>
       <c r="E7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="F7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="H7" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="I7" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="J7" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="K7">
         <v>2</v>
@@ -2101,22 +2119,22 @@
         <v>75</v>
       </c>
       <c r="E8" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F8" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="G8" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="H8" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="I8" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="J8" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -2136,19 +2154,19 @@
         <v>76</v>
       </c>
       <c r="E9" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="F9" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="H9" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="I9" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="J9" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -2168,22 +2186,22 @@
         <v>77</v>
       </c>
       <c r="E10" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F10" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="G10" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="H10" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="I10" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="J10" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="K10">
         <v>1</v>
@@ -2203,19 +2221,19 @@
         <v>78</v>
       </c>
       <c r="E11" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F11" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="H11" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="I11" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="J11" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="K11">
         <v>1</v>
@@ -2235,22 +2253,22 @@
         <v>79</v>
       </c>
       <c r="E12" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="F12" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="G12" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="H12" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="I12" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="J12" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="K12">
         <v>1</v>
@@ -2270,22 +2288,22 @@
         <v>77</v>
       </c>
       <c r="E13" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F13" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="G13" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="H13" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="I13" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="J13" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -2305,22 +2323,22 @@
         <v>80</v>
       </c>
       <c r="E14" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F14" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="G14" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="H14" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="I14" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="J14" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -2340,22 +2358,22 @@
         <v>81</v>
       </c>
       <c r="E15" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F15" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="G15" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="H15" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="I15" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="J15" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -2375,22 +2393,22 @@
         <v>82</v>
       </c>
       <c r="E16" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F16" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="G16" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="H16" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="I16" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="J16" t="s">
-        <v>276</v>
+        <v>281</v>
       </c>
       <c r="K16">
         <v>2</v>
@@ -2410,16 +2428,16 @@
         <v>83</v>
       </c>
       <c r="E17" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="G17" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="H17" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="J17" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -2439,19 +2457,19 @@
         <v>84</v>
       </c>
       <c r="E18" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="F18" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="G18" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="H18" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="J18" t="s">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="K18">
         <v>1</v>
@@ -2471,19 +2489,19 @@
         <v>85</v>
       </c>
       <c r="E19" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F19" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="G19" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="H19" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="J19" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="K19">
         <v>2</v>
@@ -2491,10 +2509,10 @@
     </row>
     <row r="20" spans="1:11">
       <c r="A20">
-        <v>21330051920089</v>
+        <v>20330051920302</v>
       </c>
       <c r="B20" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C20" t="s">
         <v>55</v>
@@ -2503,57 +2521,54 @@
         <v>86</v>
       </c>
       <c r="E20" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F20" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="G20" t="s">
-        <v>191</v>
+        <v>164</v>
       </c>
       <c r="H20" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="I20" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="J20" t="s">
-        <v>278</v>
-      </c>
-      <c r="K20">
-        <v>2</v>
+        <v>283</v>
       </c>
     </row>
     <row r="21" spans="1:11">
       <c r="A21">
-        <v>21330051920092</v>
+        <v>21330051920089</v>
       </c>
       <c r="B21" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C21" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D21" t="s">
         <v>87</v>
       </c>
       <c r="E21" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F21" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="G21" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="H21" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="I21" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="J21" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="K21">
         <v>2</v>
@@ -2561,229 +2576,229 @@
     </row>
     <row r="22" spans="1:11">
       <c r="A22">
-        <v>21330051920093</v>
+        <v>21330051920092</v>
       </c>
       <c r="B22" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C22" t="s">
-        <v>31</v>
+        <v>56</v>
       </c>
       <c r="D22" t="s">
         <v>88</v>
       </c>
       <c r="E22" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F22" t="s">
-        <v>164</v>
+        <v>166</v>
+      </c>
+      <c r="G22" t="s">
+        <v>195</v>
       </c>
       <c r="H22" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="I22" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="J22" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:11">
       <c r="A23">
-        <v>21330051920094</v>
+        <v>21330051920093</v>
       </c>
       <c r="B23" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C23" t="s">
-        <v>57</v>
+        <v>31</v>
       </c>
       <c r="D23" t="s">
         <v>89</v>
       </c>
       <c r="E23" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F23" t="s">
-        <v>165</v>
-      </c>
-      <c r="G23" t="s">
-        <v>193</v>
+        <v>167</v>
       </c>
       <c r="H23" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="I23" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="J23" t="s">
-        <v>281</v>
+        <v>286</v>
       </c>
       <c r="K23">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:11">
       <c r="A24">
-        <v>21330051920096</v>
+        <v>21330051920094</v>
       </c>
       <c r="B24" t="s">
         <v>28</v>
       </c>
       <c r="C24" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D24" t="s">
         <v>90</v>
       </c>
       <c r="E24" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F24" t="s">
-        <v>166</v>
+        <v>168</v>
+      </c>
+      <c r="G24" t="s">
+        <v>196</v>
       </c>
       <c r="H24" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="I24" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="J24" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:11">
       <c r="A25">
-        <v>21330051920097</v>
+        <v>21330051920096</v>
       </c>
       <c r="B25" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C25" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D25" t="s">
         <v>91</v>
       </c>
       <c r="E25" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="F25" t="s">
-        <v>167</v>
-      </c>
-      <c r="G25" t="s">
-        <v>194</v>
+        <v>169</v>
       </c>
       <c r="H25" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="I25" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="J25" t="s">
-        <v>283</v>
+        <v>288</v>
       </c>
       <c r="K25">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:11">
       <c r="A26">
-        <v>18330051920296</v>
+        <v>21330051920097</v>
       </c>
       <c r="B26" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C26" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D26" t="s">
         <v>92</v>
       </c>
       <c r="E26" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F26" t="s">
-        <v>168</v>
+        <v>170</v>
+      </c>
+      <c r="G26" t="s">
+        <v>197</v>
       </c>
       <c r="H26" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="I26" t="s">
-        <v>131</v>
+        <v>265</v>
       </c>
       <c r="J26" t="s">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="K26">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:11">
       <c r="A27">
-        <v>21330051920098</v>
+        <v>18330051920296</v>
       </c>
       <c r="B27" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C27" t="s">
-        <v>24</v>
+        <v>60</v>
       </c>
       <c r="D27" t="s">
         <v>93</v>
       </c>
       <c r="E27" t="s">
-        <v>132</v>
-      </c>
-      <c r="G27" t="s">
-        <v>195</v>
+        <v>133</v>
+      </c>
+      <c r="F27" t="s">
+        <v>171</v>
       </c>
       <c r="H27" t="s">
-        <v>228</v>
+        <v>231</v>
+      </c>
+      <c r="I27" t="s">
+        <v>133</v>
       </c>
       <c r="J27" t="s">
-        <v>195</v>
+        <v>290</v>
       </c>
       <c r="K27">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:11">
       <c r="A28">
-        <v>21330051920099</v>
+        <v>21330051920098</v>
       </c>
       <c r="B28" t="s">
         <v>30</v>
       </c>
       <c r="C28" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D28" t="s">
         <v>94</v>
       </c>
       <c r="E28" t="s">
-        <v>133</v>
-      </c>
-      <c r="F28" t="s">
-        <v>169</v>
+        <v>134</v>
       </c>
       <c r="G28" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="H28" t="s">
-        <v>229</v>
-      </c>
-      <c r="I28" t="s">
-        <v>261</v>
+        <v>232</v>
       </c>
       <c r="J28" t="s">
-        <v>285</v>
+        <v>198</v>
       </c>
       <c r="K28">
         <v>2</v>
@@ -2791,127 +2806,130 @@
     </row>
     <row r="29" spans="1:11">
       <c r="A29">
-        <v>21330051920100</v>
+        <v>21330051920099</v>
       </c>
       <c r="B29" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C29" t="s">
-        <v>61</v>
+        <v>28</v>
       </c>
       <c r="D29" t="s">
         <v>95</v>
       </c>
       <c r="E29" t="s">
-        <v>134</v>
+        <v>135</v>
+      </c>
+      <c r="F29" t="s">
+        <v>172</v>
       </c>
       <c r="G29" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="H29" t="s">
-        <v>230</v>
+        <v>233</v>
+      </c>
+      <c r="I29" t="s">
+        <v>266</v>
       </c>
       <c r="J29" t="s">
-        <v>197</v>
+        <v>291</v>
       </c>
       <c r="K29">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:11">
       <c r="A30">
-        <v>21330051920101</v>
+        <v>21330051920100</v>
       </c>
       <c r="B30" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C30" t="s">
-        <v>30</v>
+        <v>61</v>
       </c>
       <c r="D30" t="s">
         <v>96</v>
       </c>
       <c r="E30" t="s">
-        <v>135</v>
-      </c>
-      <c r="F30" t="s">
-        <v>170</v>
+        <v>136</v>
       </c>
       <c r="G30" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="H30" t="s">
-        <v>231</v>
-      </c>
-      <c r="I30" t="s">
-        <v>262</v>
+        <v>234</v>
       </c>
       <c r="J30" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="K30">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:11">
       <c r="A31">
-        <v>21330051920383</v>
+        <v>21330051920101</v>
       </c>
       <c r="B31" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C31" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D31" t="s">
         <v>97</v>
       </c>
       <c r="E31" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="F31" t="s">
-        <v>171</v>
+        <v>173</v>
+      </c>
+      <c r="G31" t="s">
+        <v>201</v>
       </c>
       <c r="H31" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="I31" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="J31" t="s">
-        <v>286</v>
+        <v>201</v>
       </c>
       <c r="K31">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:11">
       <c r="A32">
-        <v>21330051920102</v>
+        <v>21330051920383</v>
       </c>
       <c r="B32" t="s">
+        <v>33</v>
+      </c>
+      <c r="C32" t="s">
         <v>34</v>
-      </c>
-      <c r="C32" t="s">
-        <v>15</v>
       </c>
       <c r="D32" t="s">
         <v>98</v>
       </c>
       <c r="E32" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="F32" t="s">
-        <v>172</v>
-      </c>
-      <c r="G32" t="s">
-        <v>199</v>
+        <v>174</v>
       </c>
       <c r="H32" t="s">
-        <v>233</v>
+        <v>236</v>
+      </c>
+      <c r="I32" t="s">
+        <v>268</v>
       </c>
       <c r="J32" t="s">
-        <v>199</v>
+        <v>292</v>
       </c>
       <c r="K32">
         <v>1</v>
@@ -2919,34 +2937,31 @@
     </row>
     <row r="33" spans="1:11">
       <c r="A33">
-        <v>21330051920103</v>
+        <v>21330051920102</v>
       </c>
       <c r="B33" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C33" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="D33" t="s">
         <v>99</v>
       </c>
       <c r="E33" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="F33" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="G33" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="H33" t="s">
-        <v>234</v>
-      </c>
-      <c r="I33" t="s">
-        <v>264</v>
+        <v>237</v>
       </c>
       <c r="J33" t="s">
-        <v>173</v>
+        <v>202</v>
       </c>
       <c r="K33">
         <v>1</v>
@@ -2954,66 +2969,66 @@
     </row>
     <row r="34" spans="1:11">
       <c r="A34">
-        <v>21330051920104</v>
+        <v>21330051920103</v>
       </c>
       <c r="B34" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C34" t="s">
-        <v>62</v>
+        <v>24</v>
       </c>
       <c r="D34" t="s">
         <v>100</v>
       </c>
       <c r="E34" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="F34" t="s">
-        <v>174</v>
+        <v>176</v>
+      </c>
+      <c r="G34" t="s">
+        <v>203</v>
       </c>
       <c r="H34" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="I34" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="J34" t="s">
-        <v>287</v>
+        <v>176</v>
       </c>
       <c r="K34">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:11">
       <c r="A35">
-        <v>21330051920105</v>
+        <v>21330051920104</v>
       </c>
       <c r="B35" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C35" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D35" t="s">
         <v>101</v>
       </c>
       <c r="E35" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F35" t="s">
-        <v>175</v>
-      </c>
-      <c r="G35" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="H35" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="I35" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="J35" t="s">
-        <v>288</v>
+        <v>293</v>
       </c>
       <c r="K35">
         <v>2</v>
@@ -3021,34 +3036,34 @@
     </row>
     <row r="36" spans="1:11">
       <c r="A36">
-        <v>21330051920106</v>
+        <v>21330051920105</v>
       </c>
       <c r="B36" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C36" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D36" t="s">
         <v>102</v>
       </c>
       <c r="E36" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="F36" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="G36" t="s">
-        <v>201</v>
+        <v>178</v>
       </c>
       <c r="H36" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="I36" t="s">
-        <v>141</v>
+        <v>271</v>
       </c>
       <c r="J36" t="s">
-        <v>289</v>
+        <v>294</v>
       </c>
       <c r="K36">
         <v>2</v>
@@ -3056,95 +3071,98 @@
     </row>
     <row r="37" spans="1:11">
       <c r="A37">
-        <v>21330051920107</v>
+        <v>21330051920106</v>
       </c>
       <c r="B37" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C37" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D37" t="s">
         <v>103</v>
       </c>
       <c r="E37" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="F37" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="G37" t="s">
-        <v>177</v>
+        <v>204</v>
       </c>
       <c r="H37" t="s">
-        <v>238</v>
+        <v>241</v>
+      </c>
+      <c r="I37" t="s">
+        <v>143</v>
       </c>
       <c r="J37" t="s">
-        <v>290</v>
+        <v>295</v>
       </c>
       <c r="K37">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:11">
       <c r="A38">
-        <v>18330051920309</v>
+        <v>21330051920107</v>
       </c>
       <c r="B38" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C38" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D38" t="s">
         <v>104</v>
       </c>
       <c r="E38" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="F38" t="s">
-        <v>178</v>
+        <v>180</v>
+      </c>
+      <c r="G38" t="s">
+        <v>180</v>
       </c>
       <c r="H38" t="s">
-        <v>239</v>
-      </c>
-      <c r="I38" t="s">
-        <v>143</v>
+        <v>242</v>
       </c>
       <c r="J38" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="K38">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:11">
       <c r="A39">
-        <v>21330051920109</v>
+        <v>18330051920309</v>
       </c>
       <c r="B39" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C39" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D39" t="s">
         <v>105</v>
       </c>
       <c r="E39" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="F39" t="s">
-        <v>179</v>
-      </c>
-      <c r="G39" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
       <c r="H39" t="s">
-        <v>240</v>
+        <v>243</v>
+      </c>
+      <c r="I39" t="s">
+        <v>145</v>
       </c>
       <c r="J39" t="s">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="K39">
         <v>1</v>
@@ -3152,33 +3170,65 @@
     </row>
     <row r="40" spans="1:11">
       <c r="A40">
-        <v>21330051920387</v>
+        <v>21330051920109</v>
       </c>
       <c r="B40" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C40" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D40" t="s">
         <v>106</v>
       </c>
       <c r="E40" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="F40" t="s">
-        <v>180</v>
+        <v>182</v>
+      </c>
+      <c r="G40" t="s">
+        <v>205</v>
       </c>
       <c r="H40" t="s">
-        <v>241</v>
-      </c>
-      <c r="I40" t="s">
-        <v>267</v>
+        <v>244</v>
       </c>
       <c r="J40" t="s">
-        <v>180</v>
+        <v>298</v>
       </c>
       <c r="K40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11">
+      <c r="A41">
+        <v>21330051920387</v>
+      </c>
+      <c r="B41" t="s">
+        <v>42</v>
+      </c>
+      <c r="C41" t="s">
+        <v>68</v>
+      </c>
+      <c r="D41" t="s">
+        <v>107</v>
+      </c>
+      <c r="E41" t="s">
+        <v>147</v>
+      </c>
+      <c r="F41" t="s">
+        <v>183</v>
+      </c>
+      <c r="H41" t="s">
+        <v>245</v>
+      </c>
+      <c r="I41" t="s">
+        <v>272</v>
+      </c>
+      <c r="J41" t="s">
+        <v>183</v>
+      </c>
+      <c r="K41">
         <v>1</v>
       </c>
     </row>
@@ -3244,31 +3294,31 @@
         <v>20330051920190</v>
       </c>
       <c r="B2" t="s">
-        <v>293</v>
+        <v>299</v>
       </c>
       <c r="C2" t="s">
-        <v>307</v>
+        <v>313</v>
       </c>
       <c r="D2" t="s">
-        <v>324</v>
+        <v>330</v>
       </c>
       <c r="E2" t="s">
-        <v>353</v>
+        <v>359</v>
       </c>
       <c r="F2" t="s">
-        <v>382</v>
+        <v>388</v>
       </c>
       <c r="G2" t="s">
-        <v>411</v>
+        <v>417</v>
       </c>
       <c r="H2" t="s">
-        <v>422</v>
+        <v>428</v>
       </c>
       <c r="I2" t="s">
-        <v>450</v>
+        <v>456</v>
       </c>
       <c r="J2" t="s">
-        <v>411</v>
+        <v>417</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -3282,22 +3332,22 @@
         <v>47</v>
       </c>
       <c r="C3" t="s">
-        <v>308</v>
+        <v>314</v>
       </c>
       <c r="D3" t="s">
-        <v>325</v>
+        <v>331</v>
       </c>
       <c r="E3" t="s">
-        <v>354</v>
+        <v>360</v>
       </c>
       <c r="F3" t="s">
-        <v>383</v>
+        <v>389</v>
       </c>
       <c r="G3" t="s">
-        <v>412</v>
+        <v>418</v>
       </c>
       <c r="H3" t="s">
-        <v>423</v>
+        <v>429</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -3308,31 +3358,31 @@
         <v>20330051920192</v>
       </c>
       <c r="B4" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="C4" t="s">
-        <v>309</v>
+        <v>315</v>
       </c>
       <c r="D4" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
       <c r="E4" t="s">
-        <v>355</v>
+        <v>361</v>
       </c>
       <c r="F4" t="s">
-        <v>384</v>
+        <v>390</v>
       </c>
       <c r="G4" t="s">
-        <v>413</v>
+        <v>419</v>
       </c>
       <c r="H4" t="s">
-        <v>424</v>
+        <v>430</v>
       </c>
       <c r="I4" t="s">
-        <v>451</v>
+        <v>457</v>
       </c>
       <c r="J4" t="s">
-        <v>469</v>
+        <v>475</v>
       </c>
       <c r="K4">
         <v>2</v>
@@ -3346,28 +3396,28 @@
         <v>43</v>
       </c>
       <c r="C5" t="s">
-        <v>299</v>
+        <v>305</v>
       </c>
       <c r="D5" t="s">
-        <v>327</v>
+        <v>333</v>
       </c>
       <c r="E5" t="s">
-        <v>356</v>
+        <v>362</v>
       </c>
       <c r="F5" t="s">
-        <v>385</v>
+        <v>391</v>
       </c>
       <c r="G5" t="s">
-        <v>414</v>
+        <v>420</v>
       </c>
       <c r="H5" t="s">
-        <v>425</v>
+        <v>431</v>
       </c>
       <c r="I5" t="s">
-        <v>356</v>
+        <v>362</v>
       </c>
       <c r="J5" t="s">
-        <v>470</v>
+        <v>476</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -3378,31 +3428,31 @@
         <v>20330051920194</v>
       </c>
       <c r="B6" t="s">
-        <v>295</v>
+        <v>301</v>
       </c>
       <c r="C6" t="s">
         <v>15</v>
       </c>
       <c r="D6" t="s">
-        <v>328</v>
+        <v>334</v>
       </c>
       <c r="E6" t="s">
-        <v>357</v>
+        <v>363</v>
       </c>
       <c r="F6" t="s">
-        <v>386</v>
+        <v>392</v>
       </c>
       <c r="G6" t="s">
-        <v>386</v>
+        <v>392</v>
       </c>
       <c r="H6" t="s">
-        <v>426</v>
+        <v>432</v>
       </c>
       <c r="I6" t="s">
-        <v>452</v>
+        <v>458</v>
       </c>
       <c r="J6" t="s">
-        <v>386</v>
+        <v>392</v>
       </c>
       <c r="K6">
         <v>2</v>
@@ -3413,31 +3463,31 @@
         <v>20330051920196</v>
       </c>
       <c r="B7" t="s">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="C7" t="s">
         <v>61</v>
       </c>
       <c r="D7" t="s">
-        <v>329</v>
+        <v>335</v>
       </c>
       <c r="E7" t="s">
-        <v>358</v>
+        <v>364</v>
       </c>
       <c r="F7" t="s">
-        <v>387</v>
+        <v>393</v>
       </c>
       <c r="G7" t="s">
-        <v>415</v>
+        <v>421</v>
       </c>
       <c r="H7" t="s">
-        <v>427</v>
+        <v>433</v>
       </c>
       <c r="I7" t="s">
-        <v>453</v>
+        <v>459</v>
       </c>
       <c r="J7" t="s">
-        <v>415</v>
+        <v>421</v>
       </c>
       <c r="K7">
         <v>2</v>
@@ -3448,31 +3498,31 @@
         <v>20330051920197</v>
       </c>
       <c r="B8" t="s">
-        <v>297</v>
+        <v>303</v>
       </c>
       <c r="C8" t="s">
-        <v>310</v>
+        <v>316</v>
       </c>
       <c r="D8" t="s">
-        <v>330</v>
+        <v>336</v>
       </c>
       <c r="E8" t="s">
-        <v>359</v>
+        <v>365</v>
       </c>
       <c r="F8" t="s">
-        <v>388</v>
+        <v>394</v>
       </c>
       <c r="G8" t="s">
-        <v>416</v>
+        <v>422</v>
       </c>
       <c r="H8" t="s">
-        <v>428</v>
+        <v>434</v>
       </c>
       <c r="I8" t="s">
-        <v>454</v>
+        <v>460</v>
       </c>
       <c r="J8" t="s">
-        <v>416</v>
+        <v>422</v>
       </c>
       <c r="K8">
         <v>1</v>
@@ -3486,28 +3536,28 @@
         <v>18</v>
       </c>
       <c r="C9" t="s">
-        <v>311</v>
+        <v>317</v>
       </c>
       <c r="D9" t="s">
-        <v>331</v>
+        <v>337</v>
       </c>
       <c r="E9" t="s">
-        <v>360</v>
+        <v>366</v>
       </c>
       <c r="F9" t="s">
-        <v>389</v>
+        <v>395</v>
       </c>
       <c r="G9" t="s">
-        <v>389</v>
+        <v>395</v>
       </c>
       <c r="H9" t="s">
-        <v>429</v>
+        <v>435</v>
       </c>
       <c r="I9" t="s">
-        <v>455</v>
+        <v>461</v>
       </c>
       <c r="J9" t="s">
-        <v>471</v>
+        <v>477</v>
       </c>
       <c r="K9">
         <v>2</v>
@@ -3521,28 +3571,28 @@
         <v>18</v>
       </c>
       <c r="C10" t="s">
-        <v>312</v>
+        <v>318</v>
       </c>
       <c r="D10" t="s">
-        <v>332</v>
+        <v>338</v>
       </c>
       <c r="E10" t="s">
-        <v>361</v>
+        <v>367</v>
       </c>
       <c r="F10" t="s">
-        <v>390</v>
+        <v>396</v>
       </c>
       <c r="G10" t="s">
-        <v>390</v>
+        <v>396</v>
       </c>
       <c r="H10" t="s">
-        <v>430</v>
+        <v>436</v>
       </c>
       <c r="I10" t="s">
-        <v>456</v>
+        <v>462</v>
       </c>
       <c r="J10" t="s">
-        <v>472</v>
+        <v>478</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -3553,28 +3603,28 @@
         <v>20330051920200</v>
       </c>
       <c r="B11" t="s">
-        <v>298</v>
+        <v>304</v>
       </c>
       <c r="C11" t="s">
-        <v>313</v>
+        <v>319</v>
       </c>
       <c r="D11" t="s">
-        <v>333</v>
+        <v>339</v>
       </c>
       <c r="E11" t="s">
-        <v>362</v>
+        <v>368</v>
       </c>
       <c r="F11" t="s">
-        <v>391</v>
+        <v>397</v>
       </c>
       <c r="H11" t="s">
-        <v>431</v>
+        <v>437</v>
       </c>
       <c r="I11" t="s">
-        <v>457</v>
+        <v>463</v>
       </c>
       <c r="J11" t="s">
-        <v>473</v>
+        <v>479</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -3585,31 +3635,31 @@
         <v>20330051920201</v>
       </c>
       <c r="B12" t="s">
-        <v>299</v>
+        <v>305</v>
       </c>
       <c r="C12" t="s">
         <v>49</v>
       </c>
       <c r="D12" t="s">
-        <v>334</v>
+        <v>340</v>
       </c>
       <c r="E12" t="s">
-        <v>363</v>
+        <v>369</v>
       </c>
       <c r="F12" t="s">
-        <v>392</v>
+        <v>398</v>
       </c>
       <c r="G12" t="s">
-        <v>392</v>
+        <v>398</v>
       </c>
       <c r="H12" t="s">
-        <v>432</v>
+        <v>438</v>
       </c>
       <c r="I12" t="s">
-        <v>458</v>
+        <v>464</v>
       </c>
       <c r="J12" t="s">
-        <v>474</v>
+        <v>480</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -3623,22 +3673,22 @@
         <v>49</v>
       </c>
       <c r="C13" t="s">
-        <v>314</v>
+        <v>320</v>
       </c>
       <c r="D13" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
       <c r="E13" t="s">
-        <v>364</v>
+        <v>370</v>
       </c>
       <c r="F13" t="s">
-        <v>393</v>
+        <v>399</v>
       </c>
       <c r="H13" t="s">
-        <v>433</v>
+        <v>439</v>
       </c>
       <c r="J13" t="s">
-        <v>475</v>
+        <v>481</v>
       </c>
       <c r="K13">
         <v>2</v>
@@ -3652,28 +3702,28 @@
         <v>20</v>
       </c>
       <c r="C14" t="s">
-        <v>315</v>
+        <v>321</v>
       </c>
       <c r="D14" t="s">
-        <v>336</v>
+        <v>342</v>
       </c>
       <c r="E14" t="s">
-        <v>365</v>
+        <v>371</v>
       </c>
       <c r="F14" t="s">
-        <v>394</v>
+        <v>400</v>
       </c>
       <c r="G14" t="s">
-        <v>394</v>
+        <v>400</v>
       </c>
       <c r="H14" t="s">
-        <v>434</v>
+        <v>440</v>
       </c>
       <c r="I14" t="s">
-        <v>459</v>
+        <v>465</v>
       </c>
       <c r="J14" t="s">
-        <v>476</v>
+        <v>482</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -3687,28 +3737,28 @@
         <v>21</v>
       </c>
       <c r="C15" t="s">
-        <v>307</v>
+        <v>313</v>
       </c>
       <c r="D15" t="s">
-        <v>337</v>
+        <v>343</v>
       </c>
       <c r="E15" t="s">
-        <v>366</v>
+        <v>372</v>
       </c>
       <c r="F15" t="s">
-        <v>395</v>
+        <v>401</v>
       </c>
       <c r="G15" t="s">
-        <v>395</v>
+        <v>401</v>
       </c>
       <c r="H15" t="s">
-        <v>435</v>
+        <v>441</v>
       </c>
       <c r="I15" t="s">
-        <v>460</v>
+        <v>466</v>
       </c>
       <c r="J15" t="s">
-        <v>477</v>
+        <v>483</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -3722,25 +3772,25 @@
         <v>53</v>
       </c>
       <c r="C16" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
       <c r="D16" t="s">
-        <v>338</v>
+        <v>344</v>
       </c>
       <c r="E16" t="s">
-        <v>367</v>
+        <v>373</v>
       </c>
       <c r="F16" t="s">
-        <v>396</v>
+        <v>402</v>
       </c>
       <c r="H16" t="s">
-        <v>436</v>
+        <v>442</v>
       </c>
       <c r="I16" t="s">
-        <v>461</v>
+        <v>467</v>
       </c>
       <c r="J16" t="s">
-        <v>478</v>
+        <v>484</v>
       </c>
       <c r="K16">
         <v>1</v>
@@ -3751,28 +3801,28 @@
         <v>20330051920206</v>
       </c>
       <c r="B17" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="C17" t="s">
         <v>32</v>
       </c>
       <c r="D17" t="s">
-        <v>339</v>
+        <v>345</v>
       </c>
       <c r="E17" t="s">
-        <v>368</v>
+        <v>374</v>
       </c>
       <c r="F17" t="s">
-        <v>397</v>
+        <v>403</v>
       </c>
       <c r="H17" t="s">
-        <v>437</v>
+        <v>443</v>
       </c>
       <c r="I17" t="s">
-        <v>368</v>
+        <v>374</v>
       </c>
       <c r="J17" t="s">
-        <v>479</v>
+        <v>485</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -3786,28 +3836,28 @@
         <v>25</v>
       </c>
       <c r="C18" t="s">
-        <v>317</v>
+        <v>323</v>
       </c>
       <c r="D18" t="s">
-        <v>340</v>
+        <v>346</v>
       </c>
       <c r="E18" t="s">
-        <v>369</v>
+        <v>375</v>
       </c>
       <c r="F18" t="s">
-        <v>398</v>
+        <v>404</v>
       </c>
       <c r="G18" t="s">
-        <v>398</v>
+        <v>404</v>
       </c>
       <c r="H18" t="s">
-        <v>438</v>
+        <v>444</v>
       </c>
       <c r="I18" t="s">
-        <v>369</v>
+        <v>375</v>
       </c>
       <c r="J18" t="s">
-        <v>480</v>
+        <v>486</v>
       </c>
       <c r="K18">
         <v>2</v>
@@ -3818,31 +3868,31 @@
         <v>20330051920208</v>
       </c>
       <c r="B19" t="s">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="C19" t="s">
         <v>24</v>
       </c>
       <c r="D19" t="s">
-        <v>341</v>
+        <v>347</v>
       </c>
       <c r="E19" t="s">
-        <v>370</v>
+        <v>376</v>
       </c>
       <c r="F19" t="s">
-        <v>399</v>
+        <v>405</v>
       </c>
       <c r="G19" t="s">
-        <v>399</v>
+        <v>405</v>
       </c>
       <c r="H19" t="s">
-        <v>439</v>
+        <v>445</v>
       </c>
       <c r="I19" t="s">
-        <v>462</v>
+        <v>468</v>
       </c>
       <c r="J19" t="s">
-        <v>481</v>
+        <v>487</v>
       </c>
       <c r="K19">
         <v>1</v>
@@ -3853,28 +3903,28 @@
         <v>19330051920290</v>
       </c>
       <c r="B20" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
       <c r="C20" t="s">
-        <v>318</v>
+        <v>324</v>
       </c>
       <c r="D20" t="s">
-        <v>342</v>
+        <v>348</v>
       </c>
       <c r="E20" t="s">
-        <v>371</v>
+        <v>377</v>
       </c>
       <c r="F20" t="s">
-        <v>400</v>
+        <v>406</v>
       </c>
       <c r="H20" t="s">
-        <v>440</v>
+        <v>446</v>
       </c>
       <c r="I20" t="s">
-        <v>463</v>
+        <v>469</v>
       </c>
       <c r="J20" t="s">
-        <v>482</v>
+        <v>488</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -3885,31 +3935,31 @@
         <v>20330051920209</v>
       </c>
       <c r="B21" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
       <c r="C21" t="s">
-        <v>319</v>
+        <v>325</v>
       </c>
       <c r="D21" t="s">
-        <v>343</v>
+        <v>349</v>
       </c>
       <c r="E21" t="s">
-        <v>372</v>
+        <v>378</v>
       </c>
       <c r="F21" t="s">
-        <v>401</v>
+        <v>407</v>
       </c>
       <c r="G21" t="s">
-        <v>401</v>
+        <v>407</v>
       </c>
       <c r="H21" t="s">
-        <v>441</v>
+        <v>447</v>
       </c>
       <c r="I21" t="s">
-        <v>372</v>
+        <v>378</v>
       </c>
       <c r="J21" t="s">
-        <v>483</v>
+        <v>489</v>
       </c>
       <c r="K21">
         <v>2</v>
@@ -3920,28 +3970,28 @@
         <v>20330051920210</v>
       </c>
       <c r="B22" t="s">
-        <v>304</v>
+        <v>310</v>
       </c>
       <c r="C22" t="s">
-        <v>307</v>
+        <v>313</v>
       </c>
       <c r="D22" t="s">
-        <v>344</v>
+        <v>350</v>
       </c>
       <c r="E22" t="s">
-        <v>373</v>
+        <v>379</v>
       </c>
       <c r="F22" t="s">
-        <v>402</v>
+        <v>408</v>
       </c>
       <c r="G22" t="s">
-        <v>417</v>
+        <v>423</v>
       </c>
       <c r="H22" t="s">
-        <v>442</v>
+        <v>448</v>
       </c>
       <c r="I22" t="s">
-        <v>464</v>
+        <v>470</v>
       </c>
       <c r="K22">
         <v>1</v>
@@ -3958,25 +4008,25 @@
         <v>30</v>
       </c>
       <c r="D23" t="s">
-        <v>345</v>
+        <v>351</v>
       </c>
       <c r="E23" t="s">
-        <v>374</v>
+        <v>380</v>
       </c>
       <c r="F23" t="s">
-        <v>403</v>
+        <v>409</v>
       </c>
       <c r="G23" t="s">
-        <v>418</v>
+        <v>424</v>
       </c>
       <c r="H23" t="s">
-        <v>443</v>
+        <v>449</v>
       </c>
       <c r="I23" t="s">
-        <v>465</v>
+        <v>471</v>
       </c>
       <c r="J23" t="s">
-        <v>484</v>
+        <v>490</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -3990,16 +4040,16 @@
         <v>32</v>
       </c>
       <c r="C24" t="s">
-        <v>320</v>
+        <v>326</v>
       </c>
       <c r="D24" t="s">
-        <v>346</v>
+        <v>352</v>
       </c>
       <c r="E24" t="s">
-        <v>375</v>
+        <v>381</v>
       </c>
       <c r="F24" t="s">
-        <v>404</v>
+        <v>410</v>
       </c>
       <c r="K24">
         <v>2</v>
@@ -4013,25 +4063,25 @@
         <v>34</v>
       </c>
       <c r="C25" t="s">
-        <v>321</v>
+        <v>327</v>
       </c>
       <c r="D25" t="s">
-        <v>347</v>
+        <v>353</v>
       </c>
       <c r="E25" t="s">
-        <v>376</v>
+        <v>382</v>
       </c>
       <c r="F25" t="s">
-        <v>405</v>
+        <v>411</v>
       </c>
       <c r="G25" t="s">
-        <v>405</v>
+        <v>411</v>
       </c>
       <c r="H25" t="s">
-        <v>444</v>
+        <v>450</v>
       </c>
       <c r="J25" t="s">
-        <v>485</v>
+        <v>491</v>
       </c>
       <c r="K25">
         <v>1</v>
@@ -4048,22 +4098,22 @@
         <v>20</v>
       </c>
       <c r="D26" t="s">
-        <v>348</v>
+        <v>354</v>
       </c>
       <c r="E26" t="s">
-        <v>377</v>
+        <v>383</v>
       </c>
       <c r="F26" t="s">
-        <v>406</v>
+        <v>412</v>
       </c>
       <c r="G26" t="s">
-        <v>419</v>
+        <v>425</v>
       </c>
       <c r="H26" t="s">
-        <v>445</v>
+        <v>451</v>
       </c>
       <c r="J26" t="s">
-        <v>486</v>
+        <v>492</v>
       </c>
       <c r="K26">
         <v>2</v>
@@ -4080,19 +4130,19 @@
         <v>24</v>
       </c>
       <c r="D27" t="s">
-        <v>349</v>
+        <v>355</v>
       </c>
       <c r="E27" t="s">
-        <v>378</v>
+        <v>384</v>
       </c>
       <c r="F27" t="s">
-        <v>407</v>
+        <v>413</v>
       </c>
       <c r="H27" t="s">
-        <v>446</v>
+        <v>452</v>
       </c>
       <c r="J27" t="s">
-        <v>487</v>
+        <v>493</v>
       </c>
       <c r="K27">
         <v>1</v>
@@ -4106,28 +4156,28 @@
         <v>34</v>
       </c>
       <c r="C28" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
       <c r="D28" t="s">
-        <v>350</v>
+        <v>356</v>
       </c>
       <c r="E28" t="s">
-        <v>379</v>
+        <v>385</v>
       </c>
       <c r="F28" t="s">
-        <v>408</v>
+        <v>414</v>
       </c>
       <c r="G28" t="s">
-        <v>420</v>
+        <v>426</v>
       </c>
       <c r="H28" t="s">
-        <v>447</v>
+        <v>453</v>
       </c>
       <c r="I28" t="s">
-        <v>466</v>
+        <v>472</v>
       </c>
       <c r="J28" t="s">
-        <v>488</v>
+        <v>494</v>
       </c>
       <c r="K28">
         <v>1</v>
@@ -4138,28 +4188,28 @@
         <v>20330051920218</v>
       </c>
       <c r="B29" t="s">
-        <v>305</v>
+        <v>311</v>
       </c>
       <c r="C29" t="s">
         <v>30</v>
       </c>
       <c r="D29" t="s">
-        <v>351</v>
+        <v>357</v>
       </c>
       <c r="E29" t="s">
-        <v>380</v>
+        <v>386</v>
       </c>
       <c r="F29" t="s">
-        <v>409</v>
+        <v>415</v>
       </c>
       <c r="H29" t="s">
-        <v>448</v>
+        <v>454</v>
       </c>
       <c r="I29" t="s">
-        <v>467</v>
+        <v>473</v>
       </c>
       <c r="J29" t="s">
-        <v>489</v>
+        <v>495</v>
       </c>
       <c r="K29">
         <v>0</v>
@@ -4170,31 +4220,31 @@
         <v>20330051920219</v>
       </c>
       <c r="B30" t="s">
-        <v>306</v>
+        <v>312</v>
       </c>
       <c r="C30" t="s">
-        <v>323</v>
+        <v>329</v>
       </c>
       <c r="D30" t="s">
-        <v>352</v>
+        <v>358</v>
       </c>
       <c r="E30" t="s">
-        <v>381</v>
+        <v>387</v>
       </c>
       <c r="F30" t="s">
-        <v>410</v>
+        <v>416</v>
       </c>
       <c r="G30" t="s">
-        <v>421</v>
+        <v>427</v>
       </c>
       <c r="H30" t="s">
-        <v>449</v>
+        <v>455</v>
       </c>
       <c r="I30" t="s">
-        <v>468</v>
+        <v>474</v>
       </c>
       <c r="J30" t="s">
-        <v>490</v>
+        <v>496</v>
       </c>
       <c r="K30">
         <v>2</v>

--- a/Flores Ovalle Victor 20212.xlsx
+++ b/Flores Ovalle Victor 20212.xlsx
@@ -2538,6 +2538,9 @@
       <c r="J20" t="s">
         <v>283</v>
       </c>
+      <c r="K20">
+        <v>1</v>
+      </c>
     </row>
     <row r="21" spans="1:11">
       <c r="A21">
@@ -3133,7 +3136,7 @@
         <v>296</v>
       </c>
       <c r="K38">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -3525,7 +3528,7 @@
         <v>422</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -4029,7 +4032,7 @@
         <v>490</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:11">
